--- a/data_analyzed/Power Score (w-kg)/Power Score (w-kg)_trainings_pregame.xlsx
+++ b/data_analyzed/Power Score (w-kg)/Power Score (w-kg)_trainings_pregame.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,42 +441,112 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Alexis Rainey</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Balduzzi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Burns</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Curley</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Doyle</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Espona</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ferriolo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Hackman</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Holzman</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Hughes</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>McCann</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>McFadden</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Myers</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Pla</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Reilly</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Rodrigo</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Streib</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Tollaksen</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Wasyliw</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Yanovich</t>
         </is>
       </c>
     </row>
@@ -485,28 +555,62 @@
         <v>44803</v>
       </c>
       <c r="B2" t="n">
+        <v>3.6123</v>
+      </c>
+      <c r="C2" t="n">
         <v>3.2876</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>3.3856</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>3.9429</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.9843</v>
+      </c>
+      <c r="H2" t="n">
         <v>2.9439</v>
       </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
+        <v>3.4173</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.2803</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>3.4826</v>
+      </c>
+      <c r="M2" t="n">
         <v>3.8054</v>
       </c>
-      <c r="F2" t="n">
+      <c r="N2" t="n">
+        <v>3.8007</v>
+      </c>
+      <c r="O2" t="n">
         <v>3.3059</v>
       </c>
-      <c r="G2" t="n">
+      <c r="P2" t="n">
+        <v>3.5482</v>
+      </c>
+      <c r="Q2" t="n">
         <v>3.1107</v>
       </c>
-      <c r="H2" t="n">
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="n">
         <v>3.2074</v>
       </c>
-      <c r="I2" t="n">
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>3.8899</v>
+      </c>
+      <c r="V2" t="n">
         <v>3.4668</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3.1199</v>
       </c>
     </row>
     <row r="3">
@@ -514,28 +618,68 @@
         <v>44807</v>
       </c>
       <c r="B3" t="n">
+        <v>2.8192</v>
+      </c>
+      <c r="C3" t="n">
         <v>2.0477</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>1.4695</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
+        <v>1.3708</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.2349</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.131</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.3719</v>
       </c>
-      <c r="E3" t="n">
+      <c r="I3" t="n">
+        <v>1.964</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.0907</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.4038</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.6531</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.4568</v>
       </c>
-      <c r="F3" t="n">
+      <c r="N3" t="n">
+        <v>2.1425</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.5897</v>
       </c>
-      <c r="G3" t="n">
+      <c r="P3" t="n">
+        <v>1.7411</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1.6775</v>
       </c>
-      <c r="H3" t="n">
+      <c r="R3" t="n">
+        <v>2.1894</v>
+      </c>
+      <c r="S3" t="n">
         <v>2.4171</v>
       </c>
-      <c r="I3" t="n">
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>2.1552</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.8368</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2.0553</v>
       </c>
     </row>
     <row r="4">
@@ -543,83 +687,195 @@
         <v>44812</v>
       </c>
       <c r="B4" t="n">
+        <v>3.0696</v>
+      </c>
+      <c r="C4" t="n">
         <v>2.4215</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>2.4612</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
+        <v>1.2718</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.3665</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.7494</v>
+      </c>
+      <c r="H4" t="n">
         <v>3.2297</v>
       </c>
-      <c r="E4" t="n">
+      <c r="I4" t="n">
+        <v>3.1906</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.3211</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.6441</v>
+      </c>
+      <c r="M4" t="n">
         <v>3.5543</v>
       </c>
-      <c r="F4" t="n">
+      <c r="N4" t="n">
+        <v>2.9674</v>
+      </c>
+      <c r="O4" t="n">
         <v>4.0199</v>
       </c>
-      <c r="G4" t="n">
+      <c r="P4" t="n">
+        <v>3.0397</v>
+      </c>
+      <c r="Q4" t="n">
         <v>2.5893</v>
       </c>
-      <c r="H4" t="n">
+      <c r="R4" t="n">
+        <v>2.917</v>
+      </c>
+      <c r="S4" t="n">
         <v>2.944</v>
       </c>
-      <c r="I4" t="n">
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>3.6476</v>
+      </c>
+      <c r="V4" t="n">
         <v>2.9538</v>
       </c>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>44819</v>
       </c>
       <c r="B5" t="n">
+        <v>2.8389</v>
+      </c>
+      <c r="C5" t="n">
         <v>2.2885</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>1.1801</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.7004</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.8337</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.9275</v>
       </c>
-      <c r="E5" t="n">
+      <c r="I5" t="n">
+        <v>2.2144</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.0565</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.7743</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.6041</v>
+      </c>
+      <c r="M5" t="n">
         <v>2.5713</v>
       </c>
-      <c r="F5" t="n">
+      <c r="N5" t="n">
+        <v>2.851</v>
+      </c>
+      <c r="O5" t="n">
         <v>2.4943</v>
       </c>
-      <c r="G5" t="n">
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="n">
         <v>2.4997</v>
       </c>
-      <c r="H5" t="n">
+      <c r="R5" t="n">
+        <v>2.2343</v>
+      </c>
+      <c r="S5" t="n">
         <v>2.4062</v>
       </c>
-      <c r="I5" t="n">
+      <c r="T5" t="n">
+        <v>1.0637</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.8995</v>
+      </c>
+      <c r="V5" t="n">
         <v>2.3698</v>
       </c>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>44821</v>
       </c>
       <c r="B6" t="n">
+        <v>3.7651</v>
+      </c>
+      <c r="C6" t="n">
         <v>2.8015</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>1.3523</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.4779</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.5205</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.8164</v>
       </c>
-      <c r="E6" t="n">
+      <c r="I6" t="n">
+        <v>3.4541</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.3033</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.7384</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.0425</v>
+      </c>
+      <c r="M6" t="n">
         <v>2.6544</v>
       </c>
-      <c r="F6" t="n">
+      <c r="N6" t="n">
+        <v>3.0195</v>
+      </c>
+      <c r="O6" t="n">
         <v>3.8412</v>
       </c>
-      <c r="G6" t="n">
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="n">
         <v>2.4459</v>
       </c>
-      <c r="H6" t="n">
+      <c r="R6" t="n">
+        <v>2.7926</v>
+      </c>
+      <c r="S6" t="n">
         <v>2.7964</v>
       </c>
-      <c r="I6" t="n">
+      <c r="T6" t="n">
+        <v>1.3416</v>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="n">
         <v>2.6064</v>
       </c>
+      <c r="W6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
